--- a/src/bigdata/static/xlsx/ingestion.xlsx
+++ b/src/bigdata/static/xlsx/ingestion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>plataformas</t>
+          <t>desarrolladores</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>publicadores</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_lanzamiento</t>
         </is>
       </c>
     </row>
@@ -476,12 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Lucid Sheep Games</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Lucid Sheep Games</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>April 12, 2018</t>
         </is>
       </c>
     </row>
@@ -501,12 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Beatshapers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Beatshapers</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>January 24, 2019</t>
         </is>
       </c>
     </row>
@@ -526,12 +541,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>QubicGames</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>QubicGames</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>August 9, 2019</t>
         </is>
       </c>
     </row>
@@ -551,12 +571,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Skobbejak Games</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Skobbejak Games</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>November 6, 2018</t>
         </is>
       </c>
     </row>
@@ -576,12 +601,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nintendo EPD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>March 3, 2017</t>
         </is>
       </c>
     </row>
@@ -601,12 +631,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Blue Print</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Blue Print</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>January 25, 2018</t>
         </is>
       </c>
     </row>
@@ -626,12 +661,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nawia Games</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Nawia Games</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>October 25, 2018</t>
         </is>
       </c>
     </row>
@@ -651,12 +691,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stains Games</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>HypeTrain Digital</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>March 5, 2019</t>
         </is>
       </c>
     </row>
@@ -676,12 +721,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Jetdogs, Zoom Out Games</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>JetDogs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>March 24, 2019</t>
         </is>
       </c>
     </row>
@@ -701,12 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Roman Uhilg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Roman Uhilg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>April 27, 2018</t>
         </is>
       </c>
     </row>
@@ -726,12 +781,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Carlsen Games</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Carlsen Games</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>January 9, 2019</t>
         </is>
       </c>
     </row>
@@ -751,12 +811,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Andrade Games</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Korion</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>June 14, 2018</t>
         </is>
       </c>
     </row>
@@ -776,12 +841,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stories</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Ink Stories</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>August 2, 2018</t>
         </is>
       </c>
     </row>
@@ -801,12 +871,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Baltoro Games</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Baltoro Games</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>September 20, 2019</t>
         </is>
       </c>
     </row>
@@ -826,12 +901,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Millo Games</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Millo Games</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>December 23, 2019</t>
         </is>
       </c>
     </row>
@@ -851,12 +931,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>MidBoss</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>MidBoss</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>August 14, 2018</t>
         </is>
       </c>
     </row>
@@ -876,12 +961,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Batterystaple Games</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Batterystaple Games</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>July 10, 2018</t>
         </is>
       </c>
     </row>
@@ -901,12 +991,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digital Bards</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Digital Bards</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>May 30, 2019</t>
         </is>
       </c>
     </row>
@@ -926,12 +1021,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Petite Games</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>JP: Rainy Frog, WW: Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>September 14, 2017</t>
         </is>
       </c>
     </row>
@@ -951,12 +1051,2417 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Joindots</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Joindots</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>February 1, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60 Parsecs!</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Robot Gentleman</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Robot Gentleman</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>December 20, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>60 Seconds!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Robot Gentleman</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Robot Gentleman</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>December 18, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6180 the moon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Turtle Cream, PokPoong Games</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Turtle Cream</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>May 24, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7 Billion Humans</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tomorrow Corporation</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tomorrow Corporation</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>October 25, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8-Ball Pocket</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Super PowerUp Games</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Super PowerUp Games</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>December 25, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>88 Heroes: 98 Heroes Edition</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bitmap Bureau</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rising Star Games</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>October 12, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9 Monkeys of Shaolin</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Beat 'em up</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sobaka Studio</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Buka Entertainment</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>90s Super GP</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nicalis, Pelikan13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Nicalis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>99Moves</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>EnjoyUp Games</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>JP: Starsign, WW: EnjoyUp Games</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>February 8, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>99Seconds</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>EnjoyUp Games</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>JP: Starsign, WW: EnjoyUp Games</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>January 4, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>99Vidas</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Beat 'em up</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>QUByte Interactive</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>QUByte Interactive</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>November 27, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A-Kei Otaku</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Visual novel</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Worker Bee</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Worker Bee</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A Dark Room</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Scratchwork Development</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Circle Entertainment</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>April 11, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A Duel Hand Disaster: Trackher</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ask An Enemy Studios</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ask An Enemy Studios</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>June 10, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A Hat in Time</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Gears for Breakfast</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Humble Bundle</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>October 18, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Aaero</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Action, rhythm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mad Fellows</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Mad Fellows</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>December 24, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Aborigenus</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Drageus Games</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Drageus Games</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>January 10, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Abzû</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Giant Squid Studios</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>505 Games</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>November 29, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Access Denied</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Stately Snail</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ratalaika Games</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>February 8, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ace of Seafood</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Shoot 'em up</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nussoft</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nussoft</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>February 22, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Aces of the Luftwaffe: Squadron</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shoot 'em up</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>HandyGames</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>JP: Worker Bee, WW: HandyGames</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>November 17, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Achtung! Cthulhu Tactics</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tactical role-playing</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Auroch Digital</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ripstone</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>January 24, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Acorn Tactics</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Turn-based strategy</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tacs Games</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tacs Games</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>December 7, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The Adventure Pals</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Massive Monster</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Armor Games</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>April 3, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Adventure Time: Pirates of the Enchiridion</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Climax Studios</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA: Outright Games, PAL: Bandai Namco Entertainment</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>July 17, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Adventures of Bertram Fiddle Episode 1: A Dreadly Business</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rumpus Animation</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Chorus Worldwide</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>March 29, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Adventures of Bertram Fiddle Episode 2: A Bleaker Predicklement</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Rumpus Animation</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Chorus Worldwide</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>November 22, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Adventures of Elena Temple</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GrimTalin</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GrimTalin</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>December 24, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Aegis Defenders</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tower defense, platformer</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Guts Department</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Humble Bundle</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>February 8, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>AeternoBlade</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Corecell Technology</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>PQube</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>February 1, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>AeternoBlade II</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Corecell Technology</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>PQube</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>October 11, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Afterparty</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Night School Studio</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Night School Studio</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>October 29, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ages of Mages: The Last Keeper</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Third-person shooter</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>YFC Games</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>YFC Games</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>May 30, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Agent A: A Puzzle in Disguise</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>August 29, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Aggelos</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Storybird Games</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>PQube</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>April 24, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Agony</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Survival horror</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Madmind Studio</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Forever Entertainment</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>October 31, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Air Conflicts: Pacific Carriers</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Games Farm</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>JP: H2 Interactive, WW: Kalypso Media</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>March 26, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Air Conflicts: Secret Wars</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Games Farm</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>JP: H2 Interactive, WW: Kalypso Media</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>March 26, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Air Hockey</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sabec</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sabec</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>February 28, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Air Mail</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N-Fusion Interactive</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>N-Fusion Interactive</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>June 26, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AI: The Somnium Files</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Spike Chunsoft</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Spike Chunsoft</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>September 17, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Alchemic Dungeons DX</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Roguelike</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Q-Cumber Factory</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Flyhigh Works</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>February 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Alien Cruise</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cotton Game</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Orenda</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>March 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alien Escape</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Korion</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Korion</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>July 12, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Alien: Isolation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Survival horror</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Creative Assembly</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Sega</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>December 5, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>All-Star Fruit Racing</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Kart racing</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3D Clouds</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>JP: Circle Entertainment, WW: PQube</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>August 21, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>The Alliance Alive HD Remastered</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cattle Call</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>JP: FuRyu, WW: NIS America</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>October 8, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Almost There: The Platformer</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Action-adventure, platformer</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>The Quantum Astrophysicists Guild</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The Quantum Astrophysicists Guild</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>February 21, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Alpha</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kaname</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Kaname</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>April 18, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Alteric</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Goonswarm</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sometimes You</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>March 30, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Alternate Jake Hunter: Daedalus The Awakening of Golden Jazz</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Neilo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Arc System Works</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>May 23, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Alwa’s Awakening</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Elden Pixels</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Elden Pixels</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>September 27, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Amazing Brick Breaker</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cyberfront Korea</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>CFK</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>November 28, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ambition of the Slimes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Turn-based strategy, role-playing</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Altairworks</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Flyhigh Works</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>January 18, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>American Fugitive</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fallen Tree Games</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Curve Digital</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>May 23, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>American Ninja Warrior Challenge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GameMill Entertainment</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>GameMill Entertainment</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>March 19, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Among the Sleep: Enhanced Edition</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Survival horror, action-adventure</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Krillbite Studio</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Soedesco</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>May 29, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Anarcute</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Action, strategy</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Anarteam</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>JP: Digital Bards, WW: Plug In Digital</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>May 30, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ancient Rush 2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Heideland GameWork</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Heideland GameWork</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>February 1, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Angels of Death</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Hoshikuzu KRNKRN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Playism</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>June 28, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Angry Bunnies: Colossal Carrot Crusade</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Third-person shooter</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>YFC Games</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>YFC Games</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>September 19, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Animal Crossing: New Horizons</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Simulation</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Nintendo EPD</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>March 20, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Animal Fight Club</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Marco Amadei</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Corvostudio di Amadei Marco</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>July 26, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Animal Rivals</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Action, platformer</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Blue Sunset Games</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Blue Sunset Games</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>July 18, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Animated Jigsaws: Beautiful Japanese Scenery</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Dico</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Rainy Frog</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>April 5, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Animated Jigsaws: Japanese Women</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Dico</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Rainy Frog</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>October 4, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Animus: Stand Alone</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Action role-playing</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tenbirds</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bandai Namco</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>January 3, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Anonymous;Code</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Visual novel</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5pb.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5pb.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Another Eden</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Wright Flyer Studios</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Wright Flyer Studios</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Unreleased</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Another Lost Phone: Laura's Story</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Puzzle</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Accidental Queens, Seaven Studio</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Plug In Digital</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>April 26, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Another Sight</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lunar Great Wall Studios</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Lunar Great Wall Studios</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>June 28, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Another World</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Platformer</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Dotemu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dotemu</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>July 9, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Antiquia Lost</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Role-playing</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Exe Create</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Kemco</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>November 16, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Aokana: Four Rhythm Across the Blue</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Visual novel</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sprite</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sprite</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ape Out</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Gabe Cuzzillo</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Devolver Digital</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>February 28, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Aperion Cyberstorm</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Twin-stick shooter</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>aPriori Digital</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>aPriori Digital</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>February 8, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Apocryph: An Old-School Shooter</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Shooter</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Bigzur Games</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bigzur Games</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>March 14, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Aqua Kitty UDX</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Shoot 'em up</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Tikipod</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Tikipod</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>February 15, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Aqua Moto Racing Utopia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Zordix</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Bigben Interactive</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>April 27, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Aragami: Shadow Edition</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Action-adventure</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Lince Works</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Merge Games</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>February 21, 2019</t>
         </is>
       </c>
     </row>
